--- a/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -507,11 +507,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -551,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -585,11 +580,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -629,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -663,11 +653,6 @@
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -707,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -741,11 +726,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -785,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -819,11 +799,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -863,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -897,11 +872,6 @@
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -941,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>03/12/2018 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>03/12/2018 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -975,11 +945,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1019,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>03/12/2018 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1009,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>03/12/2018 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1053,11 +1018,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1097,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1082,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1131,11 +1091,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1175,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1209,11 +1164,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1253,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1228,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1287,11 +1237,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1331,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1365,11 +1310,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1409,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1443,11 +1383,6 @@
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1487,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1521,11 +1456,6 @@
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1565,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1520,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>07/12/2018 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1599,11 +1529,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1643,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1593,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1677,11 +1602,6 @@
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1721,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1746,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1755,11 +1675,6 @@
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1799,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1824,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1833,11 +1748,6 @@
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1877,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1902,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1911,11 +1821,6 @@
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -1955,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1989,11 +1894,6 @@
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2033,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2058,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2067,11 +1967,6 @@
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2111,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2136,7 +2031,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>05/12/2018 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2145,11 +2040,6 @@
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2189,7 +2079,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2214,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2223,11 +2113,6 @@
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2267,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2292,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2301,11 +2186,6 @@
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2345,7 +2225,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2370,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2379,11 +2259,6 @@
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2423,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2448,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>11/05/2020 14:01</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2457,11 +2332,6 @@
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2494,6 +2364,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>30/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>10 m, 5 m in between samples. filled with elodea canadensis amongst other plants. filled with all kinds of leeches and some isopod looking things. rock filled bottom. very dirty water. temp = 1,2. wasn’t able to detect speed because of all the elodea canadensis.</t>
@@ -2514,17 +2389,17 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>30/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Freshwater</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2557,6 +2432,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>12/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>20 m, 10 m in between samples. rocky grounds. temp = 0,6. speed = 48 sec.</t>
@@ -2577,17 +2457,17 @@
           <t>Natural</t>
         </is>
       </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>12/04/2022 00:00</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Freshwater</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2622,7 +2502,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 12:44</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2647,7 +2527,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 12:44</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2656,11 +2536,6 @@
         </is>
       </c>
       <c r="O30" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2695,7 +2570,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 12:04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2720,7 +2595,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 12:04</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2729,11 +2604,6 @@
         </is>
       </c>
       <c r="O31" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2768,7 +2638,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 13:43</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2793,7 +2663,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 13:43</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2802,11 +2672,6 @@
         </is>
       </c>
       <c r="O32" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2841,7 +2706,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 02:33</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2866,7 +2731,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 02:33</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2875,11 +2740,6 @@
         </is>
       </c>
       <c r="O33" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2914,7 +2774,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2939,7 +2799,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2948,11 +2808,6 @@
         </is>
       </c>
       <c r="O34" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -2987,7 +2842,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3012,7 +2867,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3021,11 +2876,6 @@
         </is>
       </c>
       <c r="O35" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3060,7 +2910,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3085,7 +2935,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3094,11 +2944,6 @@
         </is>
       </c>
       <c r="O36" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3133,7 +2978,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3158,7 +3003,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3167,11 +3012,6 @@
         </is>
       </c>
       <c r="O37" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3206,7 +3046,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3231,7 +3071,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3240,11 +3080,6 @@
         </is>
       </c>
       <c r="O38" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3279,7 +3114,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3304,7 +3139,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3313,11 +3148,6 @@
         </is>
       </c>
       <c r="O39" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3352,7 +3182,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3377,7 +3207,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3386,11 +3216,6 @@
         </is>
       </c>
       <c r="O40" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3425,7 +3250,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3450,7 +3275,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3459,11 +3284,6 @@
         </is>
       </c>
       <c r="O41" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3498,7 +3318,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3523,7 +3343,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3532,11 +3352,6 @@
         </is>
       </c>
       <c r="O42" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3571,7 +3386,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>06/04/2021 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3596,7 +3411,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>06/04/2021 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3605,11 +3420,6 @@
         </is>
       </c>
       <c r="O43" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3649,7 +3459,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3674,7 +3484,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3683,11 +3493,6 @@
         </is>
       </c>
       <c r="O44" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3727,7 +3532,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3752,7 +3557,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>06/05/2021 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3761,11 +3566,6 @@
         </is>
       </c>
       <c r="O45" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3800,7 +3600,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3825,7 +3625,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3834,11 +3634,6 @@
         </is>
       </c>
       <c r="O46" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3873,7 +3668,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3898,7 +3693,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3907,11 +3702,6 @@
         </is>
       </c>
       <c r="O47" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -3946,7 +3736,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3971,7 +3761,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3980,11 +3770,6 @@
         </is>
       </c>
       <c r="O48" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4019,7 +3804,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>12/04/2021 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4044,7 +3829,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>12/04/2021 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4053,11 +3838,6 @@
         </is>
       </c>
       <c r="O49" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4092,7 +3872,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4117,7 +3897,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4126,11 +3906,6 @@
         </is>
       </c>
       <c r="O50" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4165,7 +3940,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4190,7 +3965,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4199,11 +3974,6 @@
         </is>
       </c>
       <c r="O51" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4238,7 +4008,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4263,7 +4033,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4272,11 +4042,6 @@
         </is>
       </c>
       <c r="O52" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4311,7 +4076,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4336,7 +4101,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4345,11 +4110,6 @@
         </is>
       </c>
       <c r="O53" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4384,7 +4144,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4409,7 +4169,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4418,11 +4178,6 @@
         </is>
       </c>
       <c r="O54" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4457,7 +4212,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4482,7 +4237,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4491,11 +4246,6 @@
         </is>
       </c>
       <c r="O55" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4530,7 +4280,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4555,7 +4305,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4564,11 +4314,6 @@
         </is>
       </c>
       <c r="O56" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4603,7 +4348,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4628,7 +4373,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4637,11 +4382,6 @@
         </is>
       </c>
       <c r="O57" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4676,7 +4416,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4701,7 +4441,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4710,11 +4450,6 @@
         </is>
       </c>
       <c r="O58" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4749,7 +4484,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4774,7 +4509,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4783,11 +4518,6 @@
         </is>
       </c>
       <c r="O59" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4822,7 +4552,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4847,7 +4577,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4856,11 +4586,6 @@
         </is>
       </c>
       <c r="O60" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4895,7 +4620,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4920,7 +4645,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4929,11 +4654,6 @@
         </is>
       </c>
       <c r="O61" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -4962,7 +4682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4987,7 +4707,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4996,11 +4716,6 @@
         </is>
       </c>
       <c r="O62" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5035,7 +4750,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5060,7 +4775,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5069,11 +4784,6 @@
         </is>
       </c>
       <c r="O63" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5108,7 +4818,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5133,7 +4843,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5142,11 +4852,6 @@
         </is>
       </c>
       <c r="O64" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5181,7 +4886,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5206,7 +4911,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5215,11 +4920,6 @@
         </is>
       </c>
       <c r="O65" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5254,7 +4954,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5279,7 +4979,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>04/05/2021 00:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5288,11 +4988,6 @@
         </is>
       </c>
       <c r="O66" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5327,7 +5022,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5352,7 +5047,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5361,11 +5056,6 @@
         </is>
       </c>
       <c r="O67" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5400,7 +5090,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5425,7 +5115,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5434,11 +5124,6 @@
         </is>
       </c>
       <c r="O68" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5473,7 +5158,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5498,7 +5183,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5507,11 +5192,6 @@
         </is>
       </c>
       <c r="O69" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5546,7 +5226,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5571,7 +5251,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5580,11 +5260,6 @@
         </is>
       </c>
       <c r="O70" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5619,7 +5294,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5644,7 +5319,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5653,11 +5328,6 @@
         </is>
       </c>
       <c r="O71" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5692,7 +5362,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5717,7 +5387,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5726,11 +5396,6 @@
         </is>
       </c>
       <c r="O72" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5765,7 +5430,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5790,7 +5455,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5799,11 +5464,6 @@
         </is>
       </c>
       <c r="O73" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5838,7 +5498,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5863,7 +5523,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5872,11 +5532,6 @@
         </is>
       </c>
       <c r="O74" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5911,7 +5566,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5936,7 +5591,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5945,11 +5600,6 @@
         </is>
       </c>
       <c r="O75" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -5984,7 +5634,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6009,7 +5659,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6018,11 +5668,6 @@
         </is>
       </c>
       <c r="O76" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6057,7 +5702,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6082,7 +5727,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6091,11 +5736,6 @@
         </is>
       </c>
       <c r="O77" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6130,7 +5770,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6155,7 +5795,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6164,11 +5804,6 @@
         </is>
       </c>
       <c r="O78" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6203,7 +5838,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6228,7 +5863,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6237,11 +5872,6 @@
         </is>
       </c>
       <c r="O79" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6276,7 +5906,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6301,7 +5931,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6310,11 +5940,6 @@
         </is>
       </c>
       <c r="O80" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6349,7 +5974,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6374,7 +5999,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6383,11 +6008,6 @@
         </is>
       </c>
       <c r="O81" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6422,7 +6042,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6447,7 +6067,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6456,11 +6076,6 @@
         </is>
       </c>
       <c r="O82" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6495,7 +6110,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6520,7 +6135,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6529,11 +6144,6 @@
         </is>
       </c>
       <c r="O83" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6568,7 +6178,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6593,7 +6203,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6602,11 +6212,6 @@
         </is>
       </c>
       <c r="O84" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6641,7 +6246,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6666,7 +6271,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6675,11 +6280,6 @@
         </is>
       </c>
       <c r="O85" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6714,7 +6314,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6739,7 +6339,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6748,11 +6348,6 @@
         </is>
       </c>
       <c r="O86" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6787,7 +6382,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6812,7 +6407,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>12/05/2021 00:00</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6821,11 +6416,6 @@
         </is>
       </c>
       <c r="O87" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6860,7 +6450,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 07:19</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6885,7 +6475,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 07:19</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6894,11 +6484,6 @@
         </is>
       </c>
       <c r="O88" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -6933,7 +6518,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6958,7 +6543,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6967,11 +6552,6 @@
         </is>
       </c>
       <c r="O89" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7006,7 +6586,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7031,7 +6611,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>18/04/2021 00:00</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7040,11 +6620,6 @@
         </is>
       </c>
       <c r="O90" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7079,7 +6654,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7104,7 +6679,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7113,11 +6688,6 @@
         </is>
       </c>
       <c r="O91" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7152,7 +6722,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7177,7 +6747,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7186,11 +6756,6 @@
         </is>
       </c>
       <c r="O92" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7225,7 +6790,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7250,7 +6815,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7259,11 +6824,6 @@
         </is>
       </c>
       <c r="O93" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7298,7 +6858,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7323,7 +6883,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7332,11 +6892,6 @@
         </is>
       </c>
       <c r="O94" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7371,7 +6926,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7396,7 +6951,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7405,11 +6960,6 @@
         </is>
       </c>
       <c r="O95" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7444,7 +6994,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7469,7 +7019,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7478,11 +7028,6 @@
         </is>
       </c>
       <c r="O96" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7517,7 +7062,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7542,7 +7087,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7551,11 +7096,6 @@
         </is>
       </c>
       <c r="O97" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7590,7 +7130,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7615,7 +7155,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>02/06/2021 00:00</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7624,11 +7164,6 @@
         </is>
       </c>
       <c r="O98" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7663,7 +7198,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7688,7 +7223,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7697,11 +7232,6 @@
         </is>
       </c>
       <c r="O99" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7736,7 +7266,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7761,7 +7291,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7770,11 +7300,6 @@
         </is>
       </c>
       <c r="O100" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7809,7 +7334,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7834,7 +7359,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7843,11 +7368,6 @@
         </is>
       </c>
       <c r="O101" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7882,7 +7402,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7907,7 +7427,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7916,11 +7436,6 @@
         </is>
       </c>
       <c r="O102" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -7955,7 +7470,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7980,7 +7495,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7989,11 +7504,6 @@
         </is>
       </c>
       <c r="O103" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8028,7 +7538,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -8053,7 +7563,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8062,11 +7572,6 @@
         </is>
       </c>
       <c r="O104" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8101,7 +7606,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8126,7 +7631,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8135,11 +7640,6 @@
         </is>
       </c>
       <c r="O105" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8174,7 +7674,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8199,7 +7699,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>03/06/2021 00:00</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8208,11 +7708,6 @@
         </is>
       </c>
       <c r="O106" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8247,7 +7742,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8272,7 +7767,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>25/04/2021 00:00</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8281,11 +7776,6 @@
         </is>
       </c>
       <c r="O107" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8320,7 +7810,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8345,7 +7835,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>03/05/2021 00:00</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8354,11 +7844,6 @@
         </is>
       </c>
       <c r="O108" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8393,7 +7878,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8418,7 +7903,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8427,11 +7912,6 @@
         </is>
       </c>
       <c r="O109" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8466,7 +7946,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8491,7 +7971,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>05/05/2021 00:00</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8500,11 +7980,6 @@
         </is>
       </c>
       <c r="O110" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8539,7 +8014,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8564,7 +8039,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8573,11 +8048,6 @@
         </is>
       </c>
       <c r="O111" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8612,7 +8082,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8637,7 +8107,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>04/06/2021 00:00</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8646,11 +8116,6 @@
         </is>
       </c>
       <c r="O112" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8685,7 +8150,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8710,7 +8175,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8719,11 +8184,6 @@
         </is>
       </c>
       <c r="O113" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8758,7 +8218,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8783,7 +8243,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>02/05/2021 00:00</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8792,11 +8252,6 @@
         </is>
       </c>
       <c r="O114" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8831,7 +8286,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8856,7 +8311,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8865,11 +8320,6 @@
         </is>
       </c>
       <c r="O115" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8904,7 +8354,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8929,7 +8379,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>01/05/2021 00:00</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8938,11 +8388,6 @@
         </is>
       </c>
       <c r="O116" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -8977,7 +8422,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 10:12</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -9002,7 +8447,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 10:12</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -9011,11 +8456,6 @@
         </is>
       </c>
       <c r="O117" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9050,7 +8490,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 06:33</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -9075,7 +8515,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 06:33</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -9084,11 +8524,6 @@
         </is>
       </c>
       <c r="O118" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9123,7 +8558,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:34</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9148,7 +8583,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 03:34</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9157,11 +8592,6 @@
         </is>
       </c>
       <c r="O119" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9196,7 +8626,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 04:18</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9221,7 +8651,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 04:18</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9230,11 +8660,6 @@
         </is>
       </c>
       <c r="O120" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9269,7 +8694,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 06:15</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9294,7 +8719,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 06:15</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -9303,11 +8728,6 @@
         </is>
       </c>
       <c r="O121" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9342,7 +8762,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 08:46</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9367,7 +8787,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 08:46</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9376,11 +8796,6 @@
         </is>
       </c>
       <c r="O122" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9415,7 +8830,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 09:34</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9440,7 +8855,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 09:34</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -9449,11 +8864,6 @@
         </is>
       </c>
       <c r="O123" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9488,7 +8898,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 10:29</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9513,7 +8923,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 10:29</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9522,11 +8932,6 @@
         </is>
       </c>
       <c r="O124" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9561,7 +8966,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 03:59</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9586,7 +8991,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>12/04/2022 03:59</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9595,11 +9000,6 @@
         </is>
       </c>
       <c r="O125" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9634,7 +9034,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>13/04/2022 03:47</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9659,7 +9059,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>13/04/2022 03:47</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9668,11 +9068,6 @@
         </is>
       </c>
       <c r="O126" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9707,7 +9102,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 09:12</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9732,7 +9127,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 09:12</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9741,11 +9136,6 @@
         </is>
       </c>
       <c r="O127" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9780,7 +9170,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 12:50</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9805,7 +9195,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>11/04/2022 12:50</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9814,11 +9204,6 @@
         </is>
       </c>
       <c r="O128" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9853,7 +9238,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 09:26</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9878,7 +9263,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 09:26</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9887,11 +9272,6 @@
         </is>
       </c>
       <c r="O129" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9926,7 +9306,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 05:23</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9951,7 +9331,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 05:23</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9960,11 +9340,6 @@
         </is>
       </c>
       <c r="O130" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -9999,7 +9374,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 12:53</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -10024,7 +9399,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 12:53</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -10033,11 +9408,6 @@
         </is>
       </c>
       <c r="O131" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10072,7 +9442,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 11:25</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10097,7 +9467,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 11:25</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10106,11 +9476,6 @@
         </is>
       </c>
       <c r="O132" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10145,7 +9510,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 10:33</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -10170,7 +9535,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 10:33</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10179,11 +9544,6 @@
         </is>
       </c>
       <c r="O133" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10218,7 +9578,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>30/03/2022 07:19</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10243,7 +9603,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>30/03/2022 07:19</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10252,11 +9612,6 @@
         </is>
       </c>
       <c r="O134" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10291,7 +9646,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 13:45</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -10316,7 +9671,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>01/04/2022 13:45</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10325,11 +9680,6 @@
         </is>
       </c>
       <c r="O135" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10364,7 +9714,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 11:38</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10389,7 +9739,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>28/04/2022 11:38</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10398,11 +9748,6 @@
         </is>
       </c>
       <c r="O136" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10437,7 +9782,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 06:12</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -10462,7 +9807,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 06:12</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10471,11 +9816,6 @@
         </is>
       </c>
       <c r="O137" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10510,7 +9850,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:22</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -10535,7 +9875,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>29/04/2022 04:22</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10544,11 +9884,6 @@
         </is>
       </c>
       <c r="O138" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10583,7 +9918,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 05:14</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10608,7 +9943,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 05:14</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -10617,11 +9952,6 @@
         </is>
       </c>
       <c r="O139" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
@@ -10656,7 +9986,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 07:25</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10681,7 +10011,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>30/04/2022 07:25</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -10690,11 +10020,6 @@
         </is>
       </c>
       <c r="O140" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>

--- a/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>03/12/2018 00:00</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>03/12/2018 00:00</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>03/12/2018 00:00</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>03/12/2018 00:00</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>07/12/2018 00:00</t>
+          <t>2018-12-07</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>05/12/2018 00:00</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11/05/2020 14:01</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30/04/2022 00:00</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>30/04/2022 00:00</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>12/04/2022 00:00</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>12/04/2022 00:00</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>28/04/2022 12:44</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>28/04/2022 12:44</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11/04/2022 12:04</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>11/04/2022 12:04</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11/04/2022 13:43</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>11/04/2022 13:43</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12/04/2022 02:33</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>12/04/2022 02:33</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>06/04/2021 00:00</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>06/04/2021 00:00</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>06/05/2021 00:00</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12/04/2021 00:00</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>12/04/2021 00:00</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4577,7 +4577,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4620,7 +4620,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4979,7 +4979,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>04/05/2021 00:00</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5659,7 +5659,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5906,7 +5906,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>12/05/2021 00:00</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>12/04/2022 07:19</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6475,7 +6475,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>12/04/2022 07:19</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>18/04/2021 00:00</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6679,7 +6679,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6883,7 +6883,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7155,7 +7155,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>02/06/2021 00:00</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7402,7 +7402,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>03/06/2021 00:00</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -7742,7 +7742,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7767,7 +7767,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>25/04/2021 00:00</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>03/05/2021 00:00</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>05/05/2021 00:00</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8107,7 +8107,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/06/2021 00:00</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8243,7 +8243,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>02/05/2021 00:00</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8311,7 +8311,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>01/05/2021 00:00</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>11/04/2022 10:12</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/04/2022 10:12</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8490,7 +8490,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>12/04/2022 06:33</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>12/04/2022 06:33</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>29/04/2022 03:34</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>29/04/2022 03:34</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>30/04/2022 04:18</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>30/04/2022 04:18</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>29/04/2022 06:15</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>29/04/2022 06:15</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -8762,7 +8762,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>29/04/2022 08:46</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>29/04/2022 08:46</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>30/04/2022 09:34</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>30/04/2022 09:34</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>30/04/2022 10:29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>30/04/2022 10:29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>12/04/2022 03:59</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/04/2022 03:59</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9034,7 +9034,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>13/04/2022 03:47</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>13/04/2022 03:47</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>11/04/2022 09:12</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9127,7 +9127,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>11/04/2022 09:12</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>11/04/2022 12:50</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9195,7 +9195,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>11/04/2022 12:50</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>01/04/2022 09:26</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>01/04/2022 09:26</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>29/04/2022 05:23</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9331,7 +9331,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>29/04/2022 05:23</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>01/04/2022 12:53</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>01/04/2022 12:53</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>01/04/2022 11:25</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>01/04/2022 11:25</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>28/04/2022 10:33</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9535,7 +9535,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>28/04/2022 10:33</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>30/03/2022 07:19</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>30/03/2022 07:19</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>01/04/2022 13:45</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>01/04/2022 13:45</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>28/04/2022 11:38</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/04/2022 11:38</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>30/04/2022 06:12</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>30/04/2022 06:12</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>29/04/2022 04:22</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/04/2022 04:22</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>30/04/2022 05:14</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>30/04/2022 05:14</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>30/04/2022 07:25</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -10011,7 +10011,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>30/04/2022 07:25</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">

--- a/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-12-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-12-11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>lindenborg å</t>
+          <t>Mariager fjord</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -687,12 +687,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>agriculture, downstream fish farm</t>
+          <t>lilleå</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-26</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>nordøst for kastrup</t>
+          <t>Alling Å</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>komdrup grøft, lindenborg å</t>
+          <t>Lindenborg å</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>paderup enges landkanal</t>
+          <t>Randers fjord</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>råkilde, lindenborg å</t>
+          <t>lindenborg å</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1636,12 +1636,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>hølbæk, lindenborg å</t>
+          <t>Lindenborg å</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>kildebæk skellingbro, lindenborg å</t>
+          <t>Lindenborg å</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-29</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>tingbæk møllebæk, lindenborg å</t>
+          <t>tingbæk møllebæk</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2074,12 +2074,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>skibsted å, lindenborg å</t>
+          <t>skibsted å</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-28</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2147,12 +2147,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>døstrup bæk, simested å</t>
+          <t>døstrup bæk</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2220,12 +2220,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>hede møle å</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-11-22</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-12-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2018-12-11</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2364,6 +2364,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hove Å</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -2432,6 +2437,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Odense å</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>2022-04-12</t>
@@ -2500,6 +2510,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ulvemoserenden</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>2022-04-28</t>
@@ -2568,6 +2583,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Odense å</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -2636,6 +2656,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Odense å</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -2704,6 +2729,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Tudserenden</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>2022-04-12</t>
@@ -2772,6 +2802,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tude å</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -2840,6 +2875,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kærsmølle Å</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2021-05-12</t>
@@ -2908,6 +2948,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tingbæk Møllebæk</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>2021-05-12</t>
@@ -2976,6 +3021,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Spegerborgrenden</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -3044,6 +3094,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Stadil Fjord</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>2021-06-02</t>
@@ -3112,6 +3167,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>T.T. Basnæs nor</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -3180,6 +3240,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Haderslev Fjord</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -3248,6 +3313,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Simested Å</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>2021-05-06</t>
@@ -3316,6 +3386,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Grejs Å</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -3384,6 +3459,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Østerå</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>2021-04-06</t>
@@ -3454,7 +3534,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>simested å, v hannerup</t>
+          <t>Simested å</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3598,6 +3678,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Darum Bæk</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -3666,6 +3751,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Ringkøbing Fjord</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>2021-06-02</t>
@@ -3734,6 +3824,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Spegerborgrenden</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -3802,6 +3897,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hasseris Å</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t>2021-04-12</t>
@@ -3870,6 +3970,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -3938,6 +4043,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>T.T. Fakse Bugt</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -4006,6 +4116,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Fladså</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -4074,6 +4189,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Haslevgård Å</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
           <t>2021-05-04</t>
@@ -4142,6 +4262,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Spegerborgrenden</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -4210,6 +4335,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Nissum Fjord</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>2021-06-02</t>
@@ -4278,6 +4408,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Vejle Å</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -4346,6 +4481,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>T.T. Ulvssund</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -4414,6 +4554,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>2021-06-02</t>
@@ -4482,6 +4627,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Svinø Vig</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -4550,6 +4700,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Vejlbæk</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>2021-05-04</t>
@@ -4618,6 +4773,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>T.T. Østersøen</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -4670,6 +4830,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C62">
+        <v>55.9381</v>
+      </c>
+      <c r="D62">
+        <v>8.627700000000001</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>streams</t>
@@ -4678,6 +4844,11 @@
       <c r="F62" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4748,6 +4919,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Storå</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -4816,6 +4992,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Vejle Å</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -4884,6 +5065,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Skjern å</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -4952,6 +5138,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Østre Vasegrøft</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>2021-05-04</t>
@@ -5020,6 +5211,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Storå</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>2021-06-02</t>
@@ -5088,6 +5284,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Lammefjord</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -5156,6 +5357,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Ryå</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>2021-05-05</t>
@@ -5209,10 +5415,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>56.3706</v>
+        <v>56.37</v>
       </c>
       <c r="D70">
-        <v>9.8226</v>
+        <v>9.85097</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5222,6 +5428,11 @@
       <c r="F70" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5292,6 +5503,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Liver Å</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>2021-05-03</t>
@@ -5360,6 +5576,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Århus Å</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>2021-06-04</t>
@@ -5428,6 +5649,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Lindenborg Å</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>2021-05-12</t>
@@ -5496,6 +5722,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Åkær Å</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -5564,6 +5795,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>køge å</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -5632,6 +5868,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Ryå</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>2021-05-05</t>
@@ -5700,6 +5941,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Sønderå</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -5768,6 +6014,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Skærum å</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>2021-05-03</t>
@@ -5836,6 +6087,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Arnå</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -5904,6 +6160,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -5972,6 +6233,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Vejle Å</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -6040,6 +6306,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ribe Å</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -6108,6 +6379,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>T.T. Sejerø Bugt</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -6176,6 +6452,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Kås</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>2021-05-05</t>
@@ -6244,6 +6525,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Øvre Suså</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -6312,6 +6598,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Gram Å</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -6380,6 +6671,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Tingbæk Møllebæk</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>2021-05-12</t>
@@ -6448,6 +6744,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Stavis Å</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>2022-04-12</t>
@@ -6501,10 +6802,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>56.4945</v>
+        <v>56.4721</v>
       </c>
       <c r="D89">
-        <v>10.3252</v>
+        <v>10.321</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6514,6 +6815,11 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Alling å</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6584,6 +6890,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Vejle Å</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>2021-04-18</t>
@@ -6652,6 +6963,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -6720,6 +7036,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Brede Å Vest</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -6788,6 +7109,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Vejle Å</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -6856,6 +7182,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Køge å</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -6924,6 +7255,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>T.T. Guldborgsund</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -6992,6 +7328,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Suså</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -7060,6 +7401,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Skjern å</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -7113,10 +7459,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>56.0128</v>
+        <v>56.0059</v>
       </c>
       <c r="D98">
-        <v>8.7264</v>
+        <v>8.7212</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7126,6 +7472,11 @@
       <c r="F98" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7181,10 +7532,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>56.3791</v>
+        <v>56.39998</v>
       </c>
       <c r="D99">
-        <v>10.04</v>
+        <v>10.02352</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7194,6 +7545,11 @@
       <c r="F99" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7264,6 +7620,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -7332,6 +7693,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Hjortvad Å</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -7400,6 +7766,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>2021-06-03</t>
@@ -7468,6 +7839,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Vasegrøft</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -7536,6 +7912,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Sakskøbing Å</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -7589,10 +7970,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>55.9444</v>
+        <v>55.9445</v>
       </c>
       <c r="D105">
-        <v>8.794600000000001</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -7602,6 +7983,11 @@
       <c r="F105" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7657,10 +8043,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.8864</v>
+        <v>55.9102</v>
       </c>
       <c r="D106">
-        <v>9.6175</v>
+        <v>9.6126</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -7670,6 +8056,11 @@
       <c r="F106" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Flensborg Fjord</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -7740,6 +8131,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Als</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>2021-04-25</t>
@@ -7808,6 +8204,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Elling Å</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>2021-05-03</t>
@@ -7876,6 +8277,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Huse Å</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -7944,6 +8350,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Kastet Å</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>2021-05-05</t>
@@ -8012,6 +8423,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t>2021-06-04</t>
@@ -8080,6 +8496,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Gudenå</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>2021-06-04</t>
@@ -8148,6 +8569,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Stenkildebæk</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -8216,6 +8642,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Elverdamsåen</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>2021-05-02</t>
@@ -8284,6 +8715,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Tude å</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -8352,6 +8788,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Tude å</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>2021-05-01</t>
@@ -8420,6 +8861,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Stokkebækken</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -8488,6 +8934,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Kæmpeå</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>2022-04-12</t>
@@ -8556,6 +9007,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Nive Å</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>2022-04-29</t>
@@ -8624,6 +9080,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Orebjerg Rende</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -8692,6 +9153,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Esrum Å</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr">
         <is>
           <t>2022-04-29</t>
@@ -8760,6 +9226,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Søborg Kanal</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
           <t>2022-04-29</t>
@@ -8828,6 +9299,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Værebro Å</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -8896,6 +9372,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Værebro Å</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -8964,6 +9445,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hundstrup A</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr">
         <is>
           <t>2022-04-12</t>
@@ -9032,6 +9518,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Hoven Å</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr">
         <is>
           <t>2022-04-13</t>
@@ -9100,6 +9591,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Kongshøj Å</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -9168,6 +9664,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Hattebækken</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr">
         <is>
           <t>2022-04-11</t>
@@ -9236,6 +9737,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Brede Å Vest</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr">
         <is>
           <t>2022-04-01</t>
@@ -9304,6 +9810,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Esrum Å</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr">
         <is>
           <t>2022-04-29</t>
@@ -9372,6 +9883,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Sneum Å</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
           <t>2022-04-01</t>
@@ -9440,6 +9956,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Grindsted-Varde Å</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr">
         <is>
           <t>2022-04-01</t>
@@ -9508,6 +10029,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Harrestrup Å</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr">
         <is>
           <t>2022-04-28</t>
@@ -9576,6 +10102,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Sønder Tranders</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr">
         <is>
           <t>2022-03-30</t>
@@ -9644,6 +10175,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Grindsted-Varde Å</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr">
         <is>
           <t>2022-04-01</t>
@@ -9712,6 +10248,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Kighanerenden</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr">
         <is>
           <t>2022-04-28</t>
@@ -9780,6 +10321,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Esrum Å</t>
+        </is>
+      </c>
       <c r="H137" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -9848,6 +10394,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Lokkerens Bæk</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr">
         <is>
           <t>2022-04-29</t>
@@ -9916,6 +10467,11 @@
           <t>3200</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Pole Å</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr">
         <is>
           <t>2022-04-30</t>
@@ -9982,6 +10538,11 @@
       <c r="F140" t="inlineStr">
         <is>
           <t>3200</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Havelse Å</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">

--- a/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P10_2/P10_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P140"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2267,7 +2267,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MFD00228</t>
+          <t>MFD01464</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>56.8255986</v>
+        <v>55.6651</v>
       </c>
       <c r="D27">
-        <v>9.8112735</v>
+        <v>12.1983</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2293,17 +2293,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>lindenborg å</t>
+          <t>Hove Å</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2018-12-11</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>potential error! homogenized sediment, afløb fra skellingbro dampbrug, env= agriculture, downstream fish farm, meadow</t>
+          <t>10 m, 5 m in between samples. filled with elodea canadensis amongst other plants. filled with all kinds of leeches and some isopod looking things. rock filled bottom. very dirty water. temp = 1,2. wasn’t able to detect speed because of all the elodea canadensis.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2018-12-11</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MFD01464</t>
+          <t>MFD01536</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>55.6651</v>
+        <v>55.2976</v>
       </c>
       <c r="D28">
-        <v>12.1983</v>
+        <v>10.2158</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2366,17 +2366,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hove Å</t>
+          <t>Odense å</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. filled with elodea canadensis amongst other plants. filled with all kinds of leeches and some isopod looking things. rock filled bottom. very dirty water. temp = 1,2. wasn’t able to detect speed because of all the elodea canadensis.</t>
+          <t>20 m, 10 m in between samples. rocky grounds. temp = 0,6. speed = 48 sec.</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2413,7 +2413,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MFD01536</t>
+          <t>MFD03613</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>55.2976</v>
+        <v>55.8743</v>
       </c>
       <c r="D29">
-        <v>10.2158</v>
+        <v>12.5501</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2439,17 +2439,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Odense å</t>
+          <t>Ulvemoserenden</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. rocky grounds. temp = 0,6. speed = 48 sec.</t>
+          <t>10 m, 5 m in between. rocks rocks rocks. rocks everywhere. temp = 1,2. wasn’t able to detect speed.</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MFD03613</t>
+          <t>MFD04196</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>55.8743</v>
+        <v>55.1461</v>
       </c>
       <c r="D30">
-        <v>12.5501</v>
+        <v>10.2883</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2512,17 +2512,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ulvemoserenden</t>
+          <t>Odense å</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between. rocks rocks rocks. rocks everywhere. temp = 1,2. wasn’t able to detect speed.</t>
+          <t>10 m, 5 m in between samples. the ground was filled with rocks, unable to get more than 15 cm of sediment because we kept hitting rocks. temp = 0,8. wasn’t able to detect speed, too shallow water</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2559,7 +2559,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MFD04196</t>
+          <t>MFD04217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2568,10 +2568,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>55.1461</v>
+        <v>55.1982</v>
       </c>
       <c r="D31">
-        <v>10.2883</v>
+        <v>10.3242</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. the ground was filled with rocks, unable to get more than 15 cm of sediment because we kept hitting rocks. temp = 0,8. wasn’t able to detect speed, too shallow water</t>
+          <t>10 m, 5 m between samples. wide and deep stream. temp = 0,8. speed = 26 sec</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MFD04217</t>
+          <t>MFD04220</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2641,10 +2641,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>55.1982</v>
+        <v>54.9234</v>
       </c>
       <c r="D32">
-        <v>10.3242</v>
+        <v>10.8145</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2658,17 +2658,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odense å</t>
+          <t>Tudserenden</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10 m, 5 m between samples. wide and deep stream. temp = 0,8. speed = 26 sec</t>
+          <t>10 m, 5 m in between samples, because of a fence stopping us. very rocky bottom, clay like earth. was able to get enough sample by taking from edge of stream. temp = 0,4. wasn’t able to detect speed, orange kept getting stuck.</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2705,7 +2705,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MFD04220</t>
+          <t>MFD04226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>54.9234</v>
+        <v>55.4648</v>
       </c>
       <c r="D33">
-        <v>10.8145</v>
+        <v>11.4225</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2731,17 +2731,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tudserenden</t>
+          <t>Tude å</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples, because of a fence stopping us. very rocky bottom, clay like earth. was able to get enough sample by taking from edge of stream. temp = 0,4. wasn’t able to detect speed, orange kept getting stuck.</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter på 2 minutter 31,69 sekunder, sediment 60% ditritus 40 %ler</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2778,7 +2778,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MFD04226</t>
+          <t>MFD04236</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>55.4648</v>
+        <v>56.9518</v>
       </c>
       <c r="D34">
-        <v>11.4225</v>
+        <v>9.8802</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2804,17 +2804,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tude å</t>
+          <t>Kærsmølle Å</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter på 2 minutter 31,69 sekunder, sediment 60% ditritus 40 %ler</t>
+          <t>opstrøms dambrug, omgivet af marker (brak eller græs). 98% 1% organisk 1% sand. appelsin 36,5 over 10 m, temp 9,7</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2851,7 +2851,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MFD04236</t>
+          <t>MFD04367</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>56.9518</v>
+        <v>56.8317</v>
       </c>
       <c r="D35">
-        <v>9.8802</v>
+        <v>9.811299999999999</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Kærsmølle Å</t>
+          <t>Tingbæk Møllebæk</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>opstrøms dambrug, omgivet af marker (brak eller græs). 98% 1% organisk 1% sand. appelsin 36,5 over 10 m, temp 9,7</t>
+          <t>nedstrøms kilde m dam (thingbæk kalkmine), opstrøms for vandafleder hen mod dvfi punkt (mfd04236), meget opstrøms nedlagt dambrug. 95% sand 5% sten, appelsin 28,5 sek over 10 m, temp 7,2</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2924,7 +2924,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MFD04367</t>
+          <t>MFD04369</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2933,10 +2933,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>56.8317</v>
+        <v>55.2467</v>
       </c>
       <c r="D36">
-        <v>9.811299999999999</v>
+        <v>11.2948</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2950,17 +2950,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tingbæk Møllebæk</t>
+          <t>Spegerborgrenden</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>nedstrøms kilde m dam (thingbæk kalkmine), opstrøms for vandafleder hen mod dvfi punkt (mfd04236), meget opstrøms nedlagt dambrug. 95% sand 5% sten, appelsin 28,5 sek over 10 m, temp 7,2</t>
+          <t>vandtemperatur 13grader, appelsin test 10 meter på 34,6 sekunder, sediment 80 % sand 20%ditritus</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFD04369</t>
+          <t>MFD04379</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3006,10 +3006,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>55.2467</v>
+        <v>56.114</v>
       </c>
       <c r="D37">
-        <v>11.2948</v>
+        <v>8.3329</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3023,17 +3023,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Spegerborgrenden</t>
+          <t>Stadil Fjord</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>vandtemperatur 13grader, appelsin test 10 meter på 34,6 sekunder, sediment 80 % sand 20%ditritus</t>
+          <t>sediment 50% sand, 50% humus/mudder. omgivelser mark med korn, opstrøms oxfeldt dambrug. strømningshastighed; appelsin flød 10m på 28,04 sekunder. vandtemperatur 12 grader.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3070,7 +3070,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MFD04379</t>
+          <t>MFD04602</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>56.114</v>
+        <v>55.2226</v>
       </c>
       <c r="D38">
-        <v>8.3329</v>
+        <v>11.3953</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3096,17 +3096,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Stadil Fjord</t>
+          <t>T.T. Basnæs nor</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sediment 50% sand, 50% humus/mudder. omgivelser mark med korn, opstrøms oxfeldt dambrug. strømningshastighed; appelsin flød 10m på 28,04 sekunder. vandtemperatur 12 grader.</t>
+          <t>vandtemperatur 16 grader, appelsin test 10 meter på 1 minut 6,97 sekunder, sediment 60%sand 20 % ditritus 20%ler</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MFD04602</t>
+          <t>MFD04604</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3152,10 +3152,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>55.2226</v>
+        <v>55.2347</v>
       </c>
       <c r="D39">
-        <v>11.3953</v>
+        <v>9.5542</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>T.T. Basnæs nor</t>
+          <t>Haderslev Fjord</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>vandtemperatur 16 grader, appelsin test 10 meter på 1 minut 6,97 sekunder, sediment 60%sand 20 % ditritus 20%ler</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter 45 sekunder, sediment 95%sand 5%ditritus</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MFD04604</t>
+          <t>MFD04605</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>55.2347</v>
+        <v>56.7159</v>
       </c>
       <c r="D40">
-        <v>9.5542</v>
+        <v>9.747</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3242,17 +3242,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Haderslev Fjord</t>
+          <t>Simested Å</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter 45 sekunder, sediment 95%sand 5%ditritus</t>
+          <t>omgivet af marker efter randzone. 60% sand, 40% mudder. temp 10 grader. appelsin 46,2</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3289,7 +3289,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MFD04605</t>
+          <t>MFD04606</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3298,10 +3298,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>56.7159</v>
+        <v>55.758</v>
       </c>
       <c r="D41">
-        <v>9.747</v>
+        <v>9.501899999999999</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3315,17 +3315,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Simested Å</t>
+          <t>Grejs Å</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>omgivet af marker efter randzone. 60% sand, 40% mudder. temp 10 grader. appelsin 46,2</t>
+          <t>vandtemperatur 9°, appelsintest 10 met: 18:39 sek., sediment: 45% ler, 45 % sand, 10% detritus.</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MFD04606</t>
+          <t>MFD04607</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>55.758</v>
+        <v>57.0244</v>
       </c>
       <c r="D42">
-        <v>9.501899999999999</v>
+        <v>9.918699999999999</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3388,17 +3388,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Grejs Å</t>
+          <t>Østerå</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>vandtemperatur 9°, appelsintest 10 met: 18:39 sek., sediment: 45% ler, 45 % sand, 10% detritus.</t>
+          <t>temperature 5 degrees celsius, velocity 4 m/s</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3435,7 +3435,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MFD04607</t>
+          <t>MFD04609</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3444,10 +3444,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>57.0244</v>
+        <v>56.6549</v>
       </c>
       <c r="D43">
-        <v>9.918699999999999</v>
+        <v>9.673500000000001</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3461,17 +3461,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Østerå</t>
+          <t>Simested å</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>temperature 5 degrees celsius, velocity 4 m/s</t>
+          <t>nedstrøms dambrug, omgivet af græs areal og mark. sediment groft sand &amp; sten 50 %, sand 50%. temp 9, appelsin = 29,6 s over 10 m</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MFD04609</t>
+          <t>MFD04611</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>56.6549</v>
+        <v>56.7347</v>
       </c>
       <c r="D44">
-        <v>9.673500000000001</v>
+        <v>9.395799999999999</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Simested å</t>
+          <t>lerkenfeld å</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>nedstrøms dambrug, omgivet af græs areal og mark. sediment groft sand &amp; sten 50 %, sand 50%. temp 9, appelsin = 29,6 s over 10 m</t>
+          <t>meget stenet og bevokset vandløb, prøver taget langs kanten. appelsin = 18,4 sek over 10 m. temp 7 grader. 66% sten og 33% mudder</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3581,7 +3581,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MFD04611</t>
+          <t>MFD04615</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3590,10 +3590,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>56.7347</v>
+        <v>55.4049</v>
       </c>
       <c r="D45">
-        <v>9.395799999999999</v>
+        <v>8.653499999999999</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3607,17 +3607,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>lerkenfeld å</t>
+          <t>Darum Bæk</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>meget stenet og bevokset vandløb, prøver taget langs kanten. appelsin = 18,4 sek over 10 m. temp 7 grader. 66% sten og 33% mudder</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 43,94 sekunder, sediment 50% ler, 40%ditritus 10%sand.</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3654,7 +3654,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MFD04615</t>
+          <t>MFD04616</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3663,10 +3663,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>55.4049</v>
+        <v>56.0641</v>
       </c>
       <c r="D46">
-        <v>8.653499999999999</v>
+        <v>8.343299999999999</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3680,17 +3680,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Darum Bæk</t>
+          <t>Ringkøbing Fjord</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 43,94 sekunder, sediment 50% ler, 40%ditritus 10%sand.</t>
+          <t>sediment 85% sand, 15% mudder. strømningshastighed; appelsin flød 10m på 18,74s. vandtemperaturen var 11 grader. omgivelser, nedstrøms klaptoft dambrug og efter bro, dyremark på begge sider.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3727,7 +3727,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MFD04616</t>
+          <t>MFD04617</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3736,10 +3736,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>56.0641</v>
+        <v>55.247</v>
       </c>
       <c r="D47">
-        <v>8.343299999999999</v>
+        <v>11.2918</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3753,17 +3753,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ringkøbing Fjord</t>
+          <t>Spegerborgrenden</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sediment 85% sand, 15% mudder. strømningshastighed; appelsin flød 10m på 18,74s. vandtemperaturen var 11 grader. omgivelser, nedstrøms klaptoft dambrug og efter bro, dyremark på begge sider.</t>
+          <t>vandtemperatur 18,5 grader, appelsin test 10 meter på 30,91 sekunder, sediment 80% ditritus 10%sand 10%grus</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3800,7 +3800,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MFD04617</t>
+          <t>MFD04618</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>55.247</v>
+        <v>57.0167</v>
       </c>
       <c r="D48">
-        <v>11.2918</v>
+        <v>9.8066</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3826,17 +3826,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Spegerborgrenden</t>
+          <t>Hasseris Å</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>vandtemperatur 18,5 grader, appelsin test 10 meter på 30,91 sekunder, sediment 80% ditritus 10%sand 10%grus</t>
+          <t>vandtemperatur 7 grader. 33%sand 33%ler 33%humus, appelsin test 10 meter på 17,4 sekunder</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3873,7 +3873,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MFD04618</t>
+          <t>MFD04621</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3882,10 +3882,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>57.0167</v>
+        <v>55.9113</v>
       </c>
       <c r="D49">
-        <v>9.8066</v>
+        <v>9.591100000000001</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3899,17 +3899,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hasseris Å</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>vandtemperatur 7 grader. 33%sand 33%ler 33%humus, appelsin test 10 meter på 17,4 sekunder</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter 16,2 sekunder, sediment 80%sand 20%ditritus</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3946,7 +3946,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFD04621</t>
+          <t>MFD04622</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3955,10 +3955,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>55.9113</v>
+        <v>55.2429</v>
       </c>
       <c r="D50">
-        <v>9.591100000000001</v>
+        <v>12.346</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3972,17 +3972,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Gudenå</t>
+          <t>T.T. Fakse Bugt</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter 16,2 sekunder, sediment 80%sand 20%ditritus</t>
+          <t>vandtemperatur 15 grader, appelsin test ingen vand strøm, sediment 100%detritus</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4019,7 +4019,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFD04622</t>
+          <t>MFD04623</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4028,10 +4028,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>55.2429</v>
+        <v>55.1991</v>
       </c>
       <c r="D51">
-        <v>12.346</v>
+        <v>11.8769</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4045,17 +4045,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>T.T. Fakse Bugt</t>
+          <t>Fladså</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>vandtemperatur 15 grader, appelsin test ingen vand strøm, sediment 100%detritus</t>
+          <t>vandtemperatur</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4092,7 +4092,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFD04623</t>
+          <t>MFD04625</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4101,10 +4101,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>55.1991</v>
+        <v>56.796</v>
       </c>
       <c r="D52">
-        <v>11.8769</v>
+        <v>10.2277</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4118,17 +4118,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fladså</t>
+          <t>Haslevgård Å</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>vandtemperatur</t>
+          <t>1 delprøve taget ved udløb. appelsin = 24 sek over 10 m. temp 7,1</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4165,7 +4165,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFD04625</t>
+          <t>MFD04626</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>56.796</v>
+        <v>55.246</v>
       </c>
       <c r="D53">
-        <v>10.2277</v>
+        <v>11.2976</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Haslevgård Å</t>
+          <t>Spegerborgrenden</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1 delprøve taget ved udløb. appelsin = 24 sek over 10 m. temp 7,1</t>
+          <t>vandtemperatur 12 grader, appelsin test 10 meter på 1 minut 35,93 sekunder, sediment 80 %sand 15%grus 5%detritus</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFD04626</t>
+          <t>MFD04627</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4247,10 +4247,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>55.246</v>
+        <v>56.47</v>
       </c>
       <c r="D54">
-        <v>11.2976</v>
+        <v>8.131399999999999</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4264,17 +4264,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Spegerborgrenden</t>
+          <t>Nissum Fjord</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>vandtemperatur 12 grader, appelsin test 10 meter på 1 minut 35,93 sekunder, sediment 80 %sand 15%grus 5%detritus</t>
+          <t>sedimentet 10% mudder, 15% humus, 5% sten, 70% sand. appelsin = 49,19 s (10 m). temp = 12. marker på begge sider med korn, nedstrøms renseanlæg</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4311,7 +4311,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MFD04627</t>
+          <t>MFD04628</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4320,10 +4320,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>56.47</v>
+        <v>55.6904</v>
       </c>
       <c r="D55">
-        <v>8.131399999999999</v>
+        <v>9.267200000000001</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4337,17 +4337,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nissum Fjord</t>
+          <t>Vejle Å</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sedimentet 10% mudder, 15% humus, 5% sten, 70% sand. appelsin = 49,19 s (10 m). temp = 12. marker på begge sider med korn, nedstrøms renseanlæg</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter 15,4 sekunder, sediment 90%sand 10%ditritus</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MFD04628</t>
+          <t>MFD04629</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4393,10 +4393,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>55.6904</v>
+        <v>54.9708</v>
       </c>
       <c r="D56">
-        <v>9.267200000000001</v>
+        <v>12.0623</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4410,17 +4410,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Vejle Å</t>
+          <t>T.T. Ulvssund</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter 15,4 sekunder, sediment 90%sand 10%ditritus</t>
+          <t>vandtemperatur 8,5 grader, appelsin test 10 meter på 37,53 sekunder, sediment 50%sand 50%detritus</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4457,7 +4457,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFD04629</t>
+          <t>MFD04631</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>54.9708</v>
+        <v>55.9785</v>
       </c>
       <c r="D57">
-        <v>12.0623</v>
+        <v>8.9133</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4483,17 +4483,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>T.T. Ulvssund</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>vandtemperatur 8,5 grader, appelsin test 10 meter på 37,53 sekunder, sediment 50%sand 50%detritus</t>
+          <t>nb, alle prøver taget på samme side. sediment 30% humus, 25% mudder, 40% sand, 5% sten. strømningshastighed appelsin flød 10m på 8,82s. vandtemperaturen var 12,5 grader. omgivelser eng med dyr. ns. vesterkrog dambrug os. aabro dambrug.</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4530,7 +4530,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFD04631</t>
+          <t>MFD04632</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>55.9785</v>
+        <v>55.1001</v>
       </c>
       <c r="D58">
-        <v>8.9133</v>
+        <v>11.8057</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4556,17 +4556,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Svinø Vig</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>nb, alle prøver taget på samme side. sediment 30% humus, 25% mudder, 40% sand, 5% sten. strømningshastighed appelsin flød 10m på 8,82s. vandtemperaturen var 12,5 grader. omgivelser eng med dyr. ns. vesterkrog dambrug os. aabro dambrug.</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 7 minutter 32,95, sediment 100%detritus</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4603,7 +4603,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MFD04632</t>
+          <t>MFD04635</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4612,10 +4612,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>55.1001</v>
+        <v>56.9652</v>
       </c>
       <c r="D59">
-        <v>11.8057</v>
+        <v>10.2665</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4629,17 +4629,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Svinø Vig</t>
+          <t>Vejlbæk</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 7 minutter 32,95, sediment 100%detritus</t>
+          <t>lav vand, gren brugt til hastighed =15,9 sek over 2 m. temp 6,9. 5% humus 95% sand (50:50 lys og sort sand)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4676,7 +4676,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFD04635</t>
+          <t>MFD04637</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4685,10 +4685,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>56.9652</v>
+        <v>54.7961</v>
       </c>
       <c r="D60">
-        <v>10.2665</v>
+        <v>12.0997</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4702,17 +4702,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Vejlbæk</t>
+          <t>T.T. Østersøen</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>lav vand, gren brugt til hastighed =15,9 sek over 2 m. temp 6,9. 5% humus 95% sand (50:50 lys og sort sand)</t>
+          <t>vandtemperatur 10 grader, appelsin test umulig, sediment 80%sand 15%grus 5%detritus</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4749,7 +4749,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFD04637</t>
+          <t>MFD04639</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4758,10 +4758,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>54.7961</v>
+        <v>55.9381</v>
       </c>
       <c r="D61">
-        <v>12.0997</v>
+        <v>8.627700000000001</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4775,17 +4775,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>T.T. Østersøen</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test umulig, sediment 80%sand 15%grus 5%detritus</t>
+          <t>sediment 90% sand, 10% mudder. strømningshastighed, appelsin flød 10m på 11,09s. vandtemperaturen var 13 grader. omgivelser eng/dyremark på begge sider, nedstrøms fra en bro. alle prøver blev samlet ved den ene bred.</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4822,7 +4822,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFD04639</t>
+          <t>MFD04640</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4831,10 +4831,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>55.9381</v>
+        <v>56.3002</v>
       </c>
       <c r="D62">
-        <v>8.627700000000001</v>
+        <v>8.577400000000001</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4848,17 +4848,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Storå</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sediment 90% sand, 10% mudder. strømningshastighed, appelsin flød 10m på 11,09s. vandtemperaturen var 13 grader. omgivelser eng/dyremark på begge sider, nedstrøms fra en bro. alle prøver blev samlet ved den ene bred.</t>
+          <t>sediment 50% sand, 40% mudder, 10% humus. strømningshastighed appelsin flød 5m på 26,5s. vandtemperaturen var 12 grader. omgivelser, plantage, træer der skygger.</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4895,7 +4895,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MFD04640</t>
+          <t>MFD04643</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>56.3002</v>
+        <v>55.7082</v>
       </c>
       <c r="D63">
-        <v>8.577400000000001</v>
+        <v>9.4694</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4921,17 +4921,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Storå</t>
+          <t>Vejle Å</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sediment 50% sand, 40% mudder, 10% humus. strømningshastighed appelsin flød 5m på 26,5s. vandtemperaturen var 12 grader. omgivelser, plantage, træer der skygger.</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter 15,96,</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MFD04643</t>
+          <t>MFD04644</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4977,10 +4977,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>55.7082</v>
+        <v>55.8685</v>
       </c>
       <c r="D64">
-        <v>9.4694</v>
+        <v>9.121499999999999</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4994,17 +4994,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Vejle Å</t>
+          <t>Skjern å</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter 15,96,</t>
+          <t>sediment 100% sand. strømningshastighed appelsin flød 10m på 18,23s. vandtemperaturen var 14 grader. omgivelser træer og eng/brakmark, et godt stykke opstrøms dambrug</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5024,7 +5024,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5041,7 +5041,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MFD04644</t>
+          <t>MFD04645</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5050,10 +5050,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>55.8685</v>
+        <v>56.9923</v>
       </c>
       <c r="D65">
-        <v>9.121499999999999</v>
+        <v>10.1685</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5067,17 +5067,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Skjern å</t>
+          <t>Østre Vasegrøft</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sediment 100% sand. strømningshastighed appelsin flød 10m på 18,23s. vandtemperaturen var 14 grader. omgivelser træer og eng/brakmark, et godt stykke opstrøms dambrug</t>
+          <t>appelsin 1 min over 2 m. temperatur 6,8. sort mudder 90%, 10% sort sand</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5114,7 +5114,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MFD04645</t>
+          <t>MFD04646</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5123,10 +5123,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>56.9923</v>
+        <v>56.3395</v>
       </c>
       <c r="D66">
-        <v>10.1685</v>
+        <v>8.526999999999999</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5140,17 +5140,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Østre Vasegrøft</t>
+          <t>Storå</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>appelsin 1 min over 2 m. temperatur 6,8. sort mudder 90%, 10% sort sand</t>
+          <t>sedimentet er 100% sand. appelsin = 16,44 s (10 m). temp = 11. nedstrøms vejbro, omgivelser = eng/græs</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MFD04646</t>
+          <t>MFD04647</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5196,10 +5196,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>56.3395</v>
+        <v>55.8369</v>
       </c>
       <c r="D67">
-        <v>8.526999999999999</v>
+        <v>11.6166</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5213,17 +5213,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Storå</t>
+          <t>Lammefjord</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sedimentet er 100% sand. appelsin = 16,44 s (10 m). temp = 11. nedstrøms vejbro, omgivelser = eng/græs</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter på 2 minutter 53,84 sekunder, sediment 100%detritus</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5260,7 +5260,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MFD04647</t>
+          <t>MFD04648</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>55.8369</v>
+        <v>57.2737</v>
       </c>
       <c r="D68">
-        <v>11.6166</v>
+        <v>9.9015</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5286,17 +5286,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lammefjord</t>
+          <t>Ryå</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter på 2 minutter 53,84 sekunder, sediment 100%detritus</t>
+          <t>temp. 9,2 grader; strømhastighed 10 meter på 52,73 sek; 50% sand, 50% sort sand; vandløbet ligger mellem to marker og er et godt stykke nedstrøms et rensningsanlæg; vandløbet ligger opstrøms rørlægning</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5333,7 +5333,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MFD04648</t>
+          <t>MFD04649</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5342,10 +5342,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>57.2737</v>
+        <v>56.37</v>
       </c>
       <c r="D69">
-        <v>9.9015</v>
+        <v>9.85097</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5359,17 +5359,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ryå</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>temp. 9,2 grader; strømhastighed 10 meter på 52,73 sek; 50% sand, 50% sort sand; vandløbet ligger mellem to marker og er et godt stykke nedstrøms et rensningsanlæg; vandløbet ligger opstrøms rørlægning</t>
+          <t>sediment 100% sand (småsten i overfladen). strømningshastighed, appelsin flød 10m på 17,94s. vandtemperaturen var 12 grader. omgivelser beskyttet skov, opstrøms rørlægning.</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5406,7 +5406,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MFD04649</t>
+          <t>MFD04650</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>56.37</v>
+        <v>57.4202</v>
       </c>
       <c r="D70">
-        <v>9.85097</v>
+        <v>9.9741</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gudenå</t>
+          <t>Liver Å</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sediment 100% sand (småsten i overfladen). strømningshastighed, appelsin flød 10m på 17,94s. vandtemperaturen var 12 grader. omgivelser beskyttet skov, opstrøms rørlægning.</t>
+          <t>nedstrøms overløbsbygværk, opstrøms hjørring rensningsanlæg, strømhastighed 10 meter på 27,33 sek. sediment er 50% sand, 45% mudder og 5% organisk materiale. bunden var meget stenet, og det var derfor kun muligt at tage 2 delprøver.</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5479,7 +5479,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MFD04650</t>
+          <t>MFD04651</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>57.4202</v>
+        <v>56.1124</v>
       </c>
       <c r="D71">
-        <v>9.9741</v>
+        <v>9.996</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5505,17 +5505,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Liver Å</t>
+          <t>Århus Å</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>nedstrøms overløbsbygværk, opstrøms hjørring rensningsanlæg, strømhastighed 10 meter på 27,33 sek. sediment er 50% sand, 45% mudder og 5% organisk materiale. bunden var meget stenet, og det var derfor kun muligt at tage 2 delprøver.</t>
+          <t>sediment 85% sand, 15% sten. strømningshastighed, appelsin flød 10m på 16,08s. vandtemperaturen var 11 grader. omgivelser våd eng og skov.</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5552,7 +5552,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MFD04651</t>
+          <t>MFD04652</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5561,10 +5561,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>56.1124</v>
+        <v>56.9427</v>
       </c>
       <c r="D72">
-        <v>9.996</v>
+        <v>10.1001</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5578,17 +5578,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Århus Å</t>
+          <t>Lindenborg Å</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sediment 85% sand, 15% sten. strømningshastighed, appelsin flød 10m på 16,08s. vandtemperaturen var 11 grader. omgivelser våd eng og skov.</t>
+          <t>lindenborg å lige nedstrøms vejbro. 15% gråt sandet ler, 83% sand, 1% plante/organisk, 1% sten. temp 10,6, appelsin 13,5 sek over 10 m</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5625,7 +5625,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MFD04652</t>
+          <t>MFD04653</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5634,10 +5634,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>56.9427</v>
+        <v>55.502</v>
       </c>
       <c r="D73">
-        <v>10.1001</v>
+        <v>9.295</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5651,17 +5651,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lindenborg Å</t>
+          <t>Åkær Å</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>lindenborg å lige nedstrøms vejbro. 15% gråt sandet ler, 83% sand, 1% plante/organisk, 1% sten. temp 10,6, appelsin 13,5 sek over 10 m</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter 21,26 sekunder, sediment 100% sand</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MFD04653</t>
+          <t>MFD04657</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>55.502</v>
+        <v>55.466</v>
       </c>
       <c r="D74">
-        <v>9.295</v>
+        <v>12.0047</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5724,17 +5724,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Åkær Å</t>
+          <t>køge å</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter 21,26 sekunder, sediment 100% sand</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter på 1 minut 22,45 sekunder, sediment 50%ler 30%sand 20%ditritus</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5771,7 +5771,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MFD04657</t>
+          <t>MFD04661</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5780,10 +5780,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>55.466</v>
+        <v>57.27</v>
       </c>
       <c r="D75">
-        <v>12.0047</v>
+        <v>9.842499999999999</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5797,17 +5797,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>køge å</t>
+          <t>Ryå</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter på 1 minut 22,45 sekunder, sediment 50%ler 30%sand 20%ditritus</t>
+          <t>temp 9 grader; strømhastighed 10 meter på 13,58 sek; 80% sand, 20% mudder/organisk materiale; vandløbet ligger mellem to marker. vandløbet var meget dybt og derfor er alle tre prøver taget i kanten af vandløbet(2 på den ene side og 1 på modsatte side)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MFD04661</t>
+          <t>MFD04662</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5853,10 +5853,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>57.27</v>
+        <v>54.9001</v>
       </c>
       <c r="D76">
-        <v>9.842499999999999</v>
+        <v>9.092700000000001</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5870,17 +5870,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Ryå</t>
+          <t>Sønderå</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>temp 9 grader; strømhastighed 10 meter på 13,58 sek; 80% sand, 20% mudder/organisk materiale; vandløbet ligger mellem to marker. vandløbet var meget dybt og derfor er alle tre prøver taget i kanten af vandløbet(2 på den ene side og 1 på modsatte side)</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter 21,27 sekunder, sediment 10% sand 90%ditritus</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5917,7 +5917,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MFD04662</t>
+          <t>MFD04666</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5926,10 +5926,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>54.9001</v>
+        <v>57.4371</v>
       </c>
       <c r="D77">
-        <v>9.092700000000001</v>
+        <v>10.3634</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5943,17 +5943,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Sønderå</t>
+          <t>Skærum å</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter 21,27 sekunder, sediment 10% sand 90%ditritus</t>
+          <t>vand temp. 10 grader; strømhastighed 10 m på 22,48 sek.; 100% brunt sand</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5990,7 +5990,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MFD04666</t>
+          <t>MFD04667</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5999,10 +5999,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>57.4371</v>
+        <v>55.0611</v>
       </c>
       <c r="D78">
-        <v>10.3634</v>
+        <v>9.0907</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -6016,17 +6016,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Skærum å</t>
+          <t>Arnå</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>vand temp. 10 grader; strømhastighed 10 m på 22,48 sek.; 100% brunt sand</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter på 27,38 sekunder, sediment 90%sand 10%ditritus</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6063,7 +6063,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MFD04667</t>
+          <t>MFD04668</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6072,10 +6072,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>55.0611</v>
+        <v>56.185</v>
       </c>
       <c r="D79">
-        <v>9.0907</v>
+        <v>8.756</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6089,17 +6089,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Arnå</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter på 27,38 sekunder, sediment 90%sand 10%ditritus</t>
+          <t>sediment, 70% groft sand, 10% mudder, 5% organisk, 10% sand, 5% sten. strømningshastighed as appelsin flød 10m på 13,47s. vandtemperaturen var 13 grader. omgivelser dyremark på begge sider, ns tæt på gylletanke.</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6136,7 +6136,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MFD04668</t>
+          <t>MFD04669</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6145,10 +6145,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>56.185</v>
+        <v>55.6831</v>
       </c>
       <c r="D80">
-        <v>8.756</v>
+        <v>9.400399999999999</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6162,17 +6162,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Vejle Å</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sediment, 70% groft sand, 10% mudder, 5% organisk, 10% sand, 5% sten. strømningshastighed as appelsin flød 10m på 13,47s. vandtemperaturen var 13 grader. omgivelser dyremark på begge sider, ns tæt på gylletanke.</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter 10, 9 sekunder, sediment 90%sand, 10%ditritus</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6209,7 +6209,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MFD04669</t>
+          <t>MFD04670</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>55.6831</v>
+        <v>55.3304</v>
       </c>
       <c r="D81">
-        <v>9.400399999999999</v>
+        <v>8.859400000000001</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6235,17 +6235,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Vejle Å</t>
+          <t>Ribe Å</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter 10, 9 sekunder, sediment 90%sand, 10%ditritus</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 58,78 sekunder, sediment 60%ditritus 40 %sand, åen er okker påvirket</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6282,7 +6282,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MFD04670</t>
+          <t>MFD04671</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6291,10 +6291,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>55.3304</v>
+        <v>55.8835</v>
       </c>
       <c r="D82">
-        <v>8.859400000000001</v>
+        <v>11.5803</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6308,17 +6308,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Ribe Å</t>
+          <t>T.T. Sejerø Bugt</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 58,78 sekunder, sediment 60%ditritus 40 %sand, åen er okker påvirket</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 56,06 sekunder, sediment 50%detritus 30%ler 20%sand. kommentarer brobygning på stedet, prøve taget 20 m opstrøms</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6355,7 +6355,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MFD04671</t>
+          <t>MFD04672</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6364,10 +6364,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>55.8835</v>
+        <v>57.2026</v>
       </c>
       <c r="D83">
-        <v>11.5803</v>
+        <v>9.682700000000001</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6381,17 +6381,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>T.T. Sejerø Bugt</t>
+          <t>Kås</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 56,06 sekunder, sediment 50%detritus 30%ler 20%sand. kommentarer brobygning på stedet, prøve taget 20 m opstrøms</t>
+          <t>temp. 10 grader; strømhastighed 2 meter på 27,50 sek; opstrøms renseanlæg; udløb i vandløbet fra et rør; vandløbet ligger ved soden af en mark; 33% fint sand, 7% humus, 60% mudder</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6428,7 +6428,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MFD04672</t>
+          <t>MFD04673</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>57.2026</v>
+        <v>55.3706</v>
       </c>
       <c r="D84">
-        <v>9.682700000000001</v>
+        <v>11.8101</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6454,17 +6454,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Kås</t>
+          <t>Øvre Suså</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>temp. 10 grader; strømhastighed 2 meter på 27,50 sek; opstrøms renseanlæg; udløb i vandløbet fra et rør; vandløbet ligger ved soden af en mark; 33% fint sand, 7% humus, 60% mudder</t>
+          <t>vandtemperatur 14 grader, appelsin test 10 meter på 29,28 sekunder, sediment 75%sand 25 %ditritus</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6484,7 +6484,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6501,7 +6501,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MFD04673</t>
+          <t>MFD04674</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>55.3706</v>
+        <v>55.2965</v>
       </c>
       <c r="D85">
-        <v>11.8101</v>
+        <v>9.249599999999999</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6527,17 +6527,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Øvre Suså</t>
+          <t>Gram Å</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>vandtemperatur 14 grader, appelsin test 10 meter på 29,28 sekunder, sediment 75%sand 25 %ditritus</t>
+          <t>vandtemperatur 12 grader, appelsin test 10 meter 31,22 sekunder, sediment 70 %mudde</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6574,7 +6574,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MFD04674</t>
+          <t>MFD04675</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6583,10 +6583,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>55.2965</v>
+        <v>56.8312</v>
       </c>
       <c r="D86">
-        <v>9.249599999999999</v>
+        <v>9.8111</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6600,17 +6600,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Gram Å</t>
+          <t>Tingbæk Møllebæk</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>vandtemperatur 12 grader, appelsin test 10 meter 31,22 sekunder, sediment 70 %mudde</t>
+          <t>opstrøms nedlagt dambrug, strøm omdirigeret 100 m længere opstrøms (tættere på kalkmine dam). i privat hus baghave. kun kort stykke vandløb uden sving, 3 prøver taget over 4 m. temp 8, appelsin 16,8 sek over 2 meter. 90 % sand 10 % sten</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6647,7 +6647,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MFD04675</t>
+          <t>MFD04676</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6656,10 +6656,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>56.8312</v>
+        <v>55.4323</v>
       </c>
       <c r="D87">
-        <v>9.8111</v>
+        <v>10.2928</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6673,17 +6673,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tingbæk Møllebæk</t>
+          <t>Stavis Å</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>opstrøms nedlagt dambrug, strøm omdirigeret 100 m længere opstrøms (tættere på kalkmine dam). i privat hus baghave. kun kort stykke vandløb uden sving, 3 prøver taget over 4 m. temp 8, appelsin 16,8 sek over 2 meter. 90 % sand 10 % sten</t>
+          <t>10 m, 5 m in between samples. was only able to get two samples because of the very deep water. wide stream with extremely muddy and soft edges. temp = 0,5. speed = 1 min 26 sec.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MFD04676</t>
+          <t>MFD04677</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6729,10 +6729,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>55.4323</v>
+        <v>56.4721</v>
       </c>
       <c r="D88">
-        <v>10.2928</v>
+        <v>10.321</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6746,17 +6746,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Stavis Å</t>
+          <t>Alling å</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. was only able to get two samples because of the very deep water. wide stream with extremely muddy and soft edges. temp = 0,5. speed = 1 min 26 sec.</t>
+          <t>sediment, 70% ler, 20% mudder, 8% sand, 2% organisk. strømningshastighed appelsin flød 10m på 36s. vandtemperaturen var 12 grader. omgivelser dyrkede marker, opstrøms vejbro.</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6776,7 +6776,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6793,7 +6793,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MFD04677</t>
+          <t>MFD04678</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6802,10 +6802,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>56.4721</v>
+        <v>55.6899</v>
       </c>
       <c r="D89">
-        <v>10.321</v>
+        <v>9.273899999999999</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6819,17 +6819,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alling å</t>
+          <t>Vejle Å</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sediment, 70% ler, 20% mudder, 8% sand, 2% organisk. strømningshastighed appelsin flød 10m på 36s. vandtemperaturen var 12 grader. omgivelser dyrkede marker, opstrøms vejbro.</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter 18 sekunder, sediment 70%sand 30%detritus</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6866,7 +6866,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MFD04678</t>
+          <t>MFD04679</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6875,10 +6875,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>55.6899</v>
+        <v>54.9453</v>
       </c>
       <c r="D90">
-        <v>9.273899999999999</v>
+        <v>9.616400000000001</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6892,17 +6892,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Vejle Å</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter 18 sekunder, sediment 70%sand 30%detritus</t>
+          <t>vandtemperatur 8 grader, appelsin test for lavt vand, sediment 70%grus 30%sand</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6939,7 +6939,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MFD04679</t>
+          <t>MFD04680</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6948,10 +6948,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>54.9453</v>
+        <v>55.1502</v>
       </c>
       <c r="D91">
-        <v>9.616400000000001</v>
+        <v>8.801500000000001</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Gudenå</t>
+          <t>Brede Å Vest</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>vandtemperatur 8 grader, appelsin test for lavt vand, sediment 70%grus 30%sand</t>
+          <t>vandtemperatur 10 grader, appelsin test for lidt vand, sediment 70 %detritus %sand. mere dræn afløb end vandløb</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MFD04680</t>
+          <t>MFD04681</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7021,10 +7021,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>55.1502</v>
+        <v>55.6551</v>
       </c>
       <c r="D92">
-        <v>8.801500000000001</v>
+        <v>9.253500000000001</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Brede Å Vest</t>
+          <t>Vejle Å</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test for lidt vand, sediment 70 %detritus %sand. mere dræn afløb end vandløb</t>
+          <t>vandtemperatur 7 grader, appelsin test 10 meter på 31,29 sekunder, sediment 60% ditritus 40%sand</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7085,7 +7085,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFD04681</t>
+          <t>MFD04682</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7094,10 +7094,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>55.6551</v>
+        <v>55.4666</v>
       </c>
       <c r="D93">
-        <v>9.253500000000001</v>
+        <v>12.0253</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Vejle Å</t>
+          <t>Køge å</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>vandtemperatur 7 grader, appelsin test 10 meter på 31,29 sekunder, sediment 60% ditritus 40%sand</t>
+          <t>obs!! givet koordinat var forkert, nyt sted valgt tæt ved placering stædigvæk i køgeå, vandtemperatur 12,5 grader, appelsin test 10 meter på 34,37, sediment 33%sand 33%ditritus 33%ler</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MFD04682</t>
+          <t>MFD04683</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7167,10 +7167,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>55.4666</v>
+        <v>54.6048</v>
       </c>
       <c r="D94">
-        <v>12.0253</v>
+        <v>11.9405</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Køge å</t>
+          <t>T.T. Guldborgsund</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>obs!! givet koordinat var forkert, nyt sted valgt tæt ved placering stædigvæk i køgeå, vandtemperatur 12,5 grader, appelsin test 10 meter på 34,37, sediment 33%sand 33%ditritus 33%ler</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter på 1 minut 11,83 sekunder, sediment 80%ler 20%ditritus</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7231,7 +7231,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MFD04683</t>
+          <t>MFD04689</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7240,10 +7240,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>54.6048</v>
+        <v>55.321</v>
       </c>
       <c r="D95">
-        <v>11.9405</v>
+        <v>11.876</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7257,17 +7257,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>T.T. Guldborgsund</t>
+          <t>Suså</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter på 1 minut 11,83 sekunder, sediment 80%ler 20%ditritus</t>
+          <t>vandtemperatur 15 grader, appelsin test 10 meter på 1 minut 5,56 sekunder, sediment 80 %ditritus 20%sand</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MFD04689</t>
+          <t>MFD04690</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>55.321</v>
+        <v>55.9554</v>
       </c>
       <c r="D96">
-        <v>11.876</v>
+        <v>9.2346</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7330,17 +7330,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Suså</t>
+          <t>Skjern å</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>vandtemperatur 15 grader, appelsin test 10 meter på 1 minut 5,56 sekunder, sediment 80 %ditritus 20%sand</t>
+          <t>sediment, 90% sand, 10% sten. strømningshastighed appelsin flød 10m på 14,97s. vandtemperaturen var 16,5 grader. omgivelser naturbeskyttet skov</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7377,7 +7377,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MFD04690</t>
+          <t>MFD04691</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7386,10 +7386,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>55.9554</v>
+        <v>56.0059</v>
       </c>
       <c r="D97">
-        <v>9.2346</v>
+        <v>8.7212</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7403,17 +7403,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Skjern å</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sediment, 90% sand, 10% sten. strømningshastighed appelsin flød 10m på 14,97s. vandtemperaturen var 16,5 grader. omgivelser naturbeskyttet skov</t>
+          <t>sediment 80% mudder, 15% sand, 5% organisk. strømningshastighed, appelsin flød 10m på 26,19s. vandtemperaturen var 13 grader. omgivelser eng/gras med dyr., og træer</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MFD04691</t>
+          <t>MFD04693</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7459,10 +7459,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>56.0059</v>
+        <v>56.39998</v>
       </c>
       <c r="D98">
-        <v>8.7212</v>
+        <v>10.02352</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7476,17 +7476,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sediment 80% mudder, 15% sand, 5% organisk. strømningshastighed, appelsin flød 10m på 26,19s. vandtemperaturen var 13 grader. omgivelser eng/gras med dyr., og træer</t>
+          <t>sediment 50% sten, 40% sand, 10% mudder. strømningshastighed en pind flød 2m på 18,87s (bækken var ikke dyb nok til appelsin). vandtemperaturen var 17,5 grader. omgivelser nedstrøms rørlægning, marker omkring, bækken var i en rendzone fyldt med brændenælder og træer.</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7523,7 +7523,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MFD04693</t>
+          <t>MFD04694</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>56.39998</v>
+        <v>55.895</v>
       </c>
       <c r="D99">
-        <v>10.02352</v>
+        <v>9.4114</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7554,12 +7554,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sediment 50% sten, 40% sand, 10% mudder. strømningshastighed en pind flød 2m på 18,87s (bækken var ikke dyb nok til appelsin). vandtemperaturen var 17,5 grader. omgivelser nedstrøms rørlægning, marker omkring, bækken var i en rendzone fyldt med brændenælder og træer.</t>
+          <t>sediment 100% sand. strømningshastighed appelsin flød 10m på 29,98s. vandtemperaturen var 13 grader. omgivelser våd eng på begge sider med heste, nedstrøms rørlægning under grusvej.</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7596,7 +7596,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MFD04694</t>
+          <t>MFD04695</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>55.895</v>
+        <v>55.3701</v>
       </c>
       <c r="D100">
-        <v>9.4114</v>
+        <v>9.046799999999999</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -7622,17 +7622,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Gudenå</t>
+          <t>Hjortvad Å</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sediment 100% sand. strømningshastighed appelsin flød 10m på 29,98s. vandtemperaturen var 13 grader. omgivelser våd eng på begge sider med heste, nedstrøms rørlægning under grusvej.</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 37,93 sekunder, sediment 80%sand 10%grus 10%ditritus</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7652,7 +7652,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7669,7 +7669,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MFD04695</t>
+          <t>MFD04697</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>55.3701</v>
+        <v>55.9388</v>
       </c>
       <c r="D101">
-        <v>9.046799999999999</v>
+        <v>8.937099999999999</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -7695,17 +7695,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hjortvad Å</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 37,93 sekunder, sediment 80%sand 10%grus 10%ditritus</t>
+          <t>sediment, 100% sand. strømningshastighed appelsin flød 10m på 13,74s. vandtemperaturen var 12 grader. omgivelser eng/buskads opstrøms vejbro, opstrøms tilløbende å med dambrug.</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7742,7 +7742,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MFD04697</t>
+          <t>MFD04698</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7751,10 +7751,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>55.9388</v>
+        <v>55.2625</v>
       </c>
       <c r="D102">
-        <v>8.937099999999999</v>
+        <v>11.7497</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -7768,17 +7768,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Vasegrøft</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sediment, 100% sand. strømningshastighed appelsin flød 10m på 13,74s. vandtemperaturen var 12 grader. omgivelser eng/buskads opstrøms vejbro, opstrøms tilløbende å med dambrug.</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter på 26,96 sekunder, sediment 75% sand 25%ditritus</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7815,7 +7815,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MFD04698</t>
+          <t>MFD04699</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>55.2625</v>
+        <v>54.7193</v>
       </c>
       <c r="D103">
-        <v>11.7497</v>
+        <v>11.6934</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -7841,17 +7841,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Vasegrøft</t>
+          <t>Sakskøbing Å</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter på 26,96 sekunder, sediment 75% sand 25%ditritus</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 36,07 sekunder, sediment 70%sand 20%ler 10%ditritus</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7888,7 +7888,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MFD04699</t>
+          <t>MFD04701</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7897,10 +7897,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>54.7193</v>
+        <v>55.9445</v>
       </c>
       <c r="D104">
-        <v>11.6934</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -7914,17 +7914,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Sakskøbing Å</t>
+          <t>Skjern Å</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 36,07 sekunder, sediment 70%sand 20%ler 10%ditritus</t>
+          <t>sediment, 55% mudder, 40% sand, 5% organisk. strømningshastighed, appelsin flød 10m på 8,69s. vandtemperaturen var 13 grader. omgivelser, eng på den side, dyremark på den anden. alle prøver taget på den ene side. et godt sted nedstrøms dambrug.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7961,7 +7961,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MFD04701</t>
+          <t>MFD04704</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7970,10 +7970,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>55.9445</v>
+        <v>55.9102</v>
       </c>
       <c r="D105">
-        <v>8.805999999999999</v>
+        <v>9.6126</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Skjern Å</t>
+          <t>Flensborg Fjord</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sediment, 55% mudder, 40% sand, 5% organisk. strømningshastighed, appelsin flød 10m på 8,69s. vandtemperaturen var 13 grader. omgivelser, eng på den side, dyremark på den anden. alle prøver taget på den ene side. et godt sted nedstrøms dambrug.</t>
+          <t>sediment, 85% sand, 15% mudder. strømningshastighed appelsin flød 10m på 12,49s. vandtemperaturen var 15 grader. omgivelser, eng på den ene side, skov på den anden, nedstrøms lille bro.</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8034,7 +8034,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MFD04704</t>
+          <t>MFD04705</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8043,10 +8043,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>55.9102</v>
+        <v>55.0435</v>
       </c>
       <c r="D106">
-        <v>9.6126</v>
+        <v>9.8324</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8060,17 +8060,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Flensborg Fjord</t>
+          <t>Als</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sediment, 85% sand, 15% mudder. strømningshastighed appelsin flød 10m på 12,49s. vandtemperaturen var 15 grader. omgivelser, eng på den ene side, skov på den anden, nedstrøms lille bro.</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter på 35,93 sekunder, sediment 60%ler, 30%sand 10%ditritus</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8090,7 +8090,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-04-25</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8107,7 +8107,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MFD04705</t>
+          <t>MFD04706</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>55.0435</v>
+        <v>57.4933</v>
       </c>
       <c r="D107">
-        <v>9.8324</v>
+        <v>10.346</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -8133,17 +8133,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Als</t>
+          <t>Elling Å</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter på 35,93 sekunder, sediment 60%ler, 30%sand 10%ditritus</t>
+          <t>strømhastigheden som var 2 meter på 27,24 sek. 100% brun og sort sand, og mes lidt organisk materiale imellem.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2021-04-25</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8180,7 +8180,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MFD04706</t>
+          <t>MFD04707</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8189,10 +8189,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>57.4933</v>
+        <v>55.6766</v>
       </c>
       <c r="D108">
-        <v>10.346</v>
+        <v>11.5157</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8206,17 +8206,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Elling Å</t>
+          <t>Huse Å</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>strømhastigheden som var 2 meter på 27,24 sek. 100% brun og sort sand, og mes lidt organisk materiale imellem.</t>
+          <t>vandtemperatur 10 grader, appelsin test 10 meter på 1 minut 4,42 sekunder, sediment 40%sand 40%detritus 20%grus.</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8253,7 +8253,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MFD04707</t>
+          <t>MFD04708</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8262,10 +8262,10 @@
         </is>
       </c>
       <c r="C109">
-        <v>55.6766</v>
+        <v>56.8641</v>
       </c>
       <c r="D109">
-        <v>11.5157</v>
+        <v>8.479200000000001</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8279,17 +8279,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Huse Å</t>
+          <t>Kastet Å</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>vandtemperatur 10 grader, appelsin test 10 meter på 1 minut 4,42 sekunder, sediment 40%sand 40%detritus 20%grus.</t>
+          <t>temp. 8 grader, strømhastighed 10 meter på 26,47 sek.; vandløbet ligger mellem græsmark, landbrug og ved nogle træer. i vandløbet var der er rør der løb ud. 33% groft sand, 7% humus, 40% mudder og 20% mudder/sand. i vandløbet lå der en del sten</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2021-05-05</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8326,7 +8326,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MFD04708</t>
+          <t>MFD04709</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="C110">
-        <v>56.8641</v>
+        <v>56.0022</v>
       </c>
       <c r="D110">
-        <v>8.479200000000001</v>
+        <v>9.8527</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -8352,17 +8352,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Kastet Å</t>
+          <t>Gudenå</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>temp. 8 grader, strømhastighed 10 meter på 26,47 sek.; vandløbet ligger mellem græsmark, landbrug og ved nogle træer. i vandløbet var der er rør der løb ud. 33% groft sand, 7% humus, 40% mudder og 20% mudder/sand. i vandløbet lå der en del sten</t>
+          <t>sediment 67% sand, 33% ler. strømningshastighed, pind flød 10m på 16,5s. vandtemperaturen var 14,5 grader. omgivelser skov, opstrøms rørlægning.</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8382,7 +8382,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2021-05-05</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8399,7 +8399,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MFD04709</t>
+          <t>MFD04710</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8408,10 +8408,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>56.0022</v>
+        <v>56.0134</v>
       </c>
       <c r="D111">
-        <v>9.8527</v>
+        <v>9.964</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sediment 67% sand, 33% ler. strømningshastighed, pind flød 10m på 16,5s. vandtemperaturen var 14,5 grader. omgivelser skov, opstrøms rørlægning.</t>
+          <t>sediment 95% mudder, 5 % sand. strømningshastighed appelsin flød 5m på 1:39,43s. vandtemperaturen var 15 grader. nedstrøms bro. omgivelser våd eng med dyr. alle prøver blev taget på samme side.</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8472,7 +8472,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MFD04710</t>
+          <t>MFD04712</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8481,10 +8481,10 @@
         </is>
       </c>
       <c r="C112">
-        <v>56.0134</v>
+        <v>55.3556</v>
       </c>
       <c r="D112">
-        <v>9.964</v>
+        <v>12.0612</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -8498,17 +8498,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Gudenå</t>
+          <t>Stenkildebæk</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sediment 95% mudder, 5 % sand. strømningshastighed appelsin flød 5m på 1:39,43s. vandtemperaturen var 15 grader. nedstrøms bro. omgivelser våd eng med dyr. alle prøver blev taget på samme side.</t>
+          <t>vandtemperatur 12 grader, appelsin test 10 meter på 1 minut 46,59 sekunder, sediment 50%sand 20%ler 20%grus 10%ditritus</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-02</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -8545,7 +8545,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MFD04712</t>
+          <t>MFD04718</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8554,10 +8554,10 @@
         </is>
       </c>
       <c r="C113">
-        <v>55.3556</v>
+        <v>55.5775</v>
       </c>
       <c r="D113">
-        <v>12.0612</v>
+        <v>11.8608</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Stenkildebæk</t>
+          <t>Elverdamsåen</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>vandtemperatur 12 grader, appelsin test 10 meter på 1 minut 46,59 sekunder, sediment 50%sand 20%ler 20%grus 10%ditritus</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter ikke mulig, sediment 80%sand 20 %ditritus</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8618,7 +8618,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MFD04718</t>
+          <t>MFD04721</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8627,10 +8627,10 @@
         </is>
       </c>
       <c r="C114">
-        <v>55.5775</v>
+        <v>55.5276</v>
       </c>
       <c r="D114">
-        <v>11.8608</v>
+        <v>11.4891</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -8644,17 +8644,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Elverdamsåen</t>
+          <t>Tude å</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter ikke mulig, sediment 80%sand 20 %ditritus</t>
+          <t>vandtemperatur 9 grader, appelsin test 10 meter på 51,24 sekunder, sediment 60%sand 40%detritus</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2021-05-02</t>
+          <t>2021-05-01</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -8691,7 +8691,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MFD04721</t>
+          <t>MFD04726</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8700,10 +8700,10 @@
         </is>
       </c>
       <c r="C115">
-        <v>55.5276</v>
+        <v>55.4181</v>
       </c>
       <c r="D115">
-        <v>11.4891</v>
+        <v>11.4468</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>vandtemperatur 9 grader, appelsin test 10 meter på 51,24 sekunder, sediment 60%sand 40%detritus</t>
+          <t>vandtemperatur 11 grader, appelsin test 10 meter på 46,99 sekunder, sediment 80%sand 10%ditritus 10%grus</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8764,7 +8764,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MFD04726</t>
+          <t>MFD04871</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8773,10 +8773,10 @@
         </is>
       </c>
       <c r="C116">
-        <v>55.4181</v>
+        <v>55.178</v>
       </c>
       <c r="D116">
-        <v>11.4468</v>
+        <v>10.7893</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -8790,17 +8790,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Tude å</t>
+          <t>Stokkebækken</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>vandtemperatur 11 grader, appelsin test 10 meter på 46,99 sekunder, sediment 80%sand 10%ditritus 10%grus</t>
+          <t>10 m, 5 m in between samples. sediment full of rocks. temp = 0,8. speed = 21 sec. strong stream.</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2021-05-01</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -8837,7 +8837,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MFD04871</t>
+          <t>MFD05031</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8846,10 +8846,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>55.178</v>
+        <v>55.4018</v>
       </c>
       <c r="D117">
-        <v>10.7893</v>
+        <v>10.5207</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -8863,17 +8863,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Stokkebækken</t>
+          <t>Kæmpeå</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. sediment full of rocks. temp = 0,8. speed = 21 sec. strong stream.</t>
+          <t>10 m, 5 m in between samples. rocky grounds. shallow water. temp = 0,8. speed = 51 sec.</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -8910,7 +8910,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MFD05031</t>
+          <t>MFD05633</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8919,10 +8919,10 @@
         </is>
       </c>
       <c r="C118">
-        <v>55.4018</v>
+        <v>55.9163</v>
       </c>
       <c r="D118">
-        <v>10.5207</v>
+        <v>12.4992</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -8936,17 +8936,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Kæmpeå</t>
+          <t>Nive Å</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. rocky grounds. shallow water. temp = 0,8. speed = 51 sec.</t>
+          <t>20 m, 10 m in between samples. switching between rock bottom and soft sediment. switching between sand and clay. temp = 0,9. speed = 51 sec.</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -8983,7 +8983,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MFD05633</t>
+          <t>MFD09467</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8992,10 +8992,10 @@
         </is>
       </c>
       <c r="C119">
-        <v>55.9163</v>
+        <v>56.1057</v>
       </c>
       <c r="D119">
-        <v>12.4992</v>
+        <v>12.1808</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -9009,17 +9009,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Nive Å</t>
+          <t>Orebjerg Rende</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. switching between rock bottom and soft sediment. switching between sand and clay. temp = 0,9. speed = 51 sec.</t>
+          <t>10 m, 5 m in between samples. a lot of clay at the bottom, a lot of sand at the top. very nice clay. shallow water. temp = 0,9. speed = 58 sec.</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -9056,7 +9056,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MFD09467</t>
+          <t>MFD09470</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9065,10 +9065,10 @@
         </is>
       </c>
       <c r="C120">
-        <v>56.1057</v>
+        <v>56.0605</v>
       </c>
       <c r="D120">
-        <v>12.1808</v>
+        <v>12.3681</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -9082,17 +9082,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Orebjerg Rende</t>
+          <t>Esrum Å</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. a lot of clay at the bottom, a lot of sand at the top. very nice clay. shallow water. temp = 0,9. speed = 58 sec.</t>
+          <t>10 m, 5 m in between samples. extremely soft sediment some places, but mostly filled with rocks.the soft sediment had a worm like structure in the top layer. temp = 0,9. speed = 27 sec.</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -9129,7 +9129,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFD09470</t>
+          <t>MFD09509</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9138,10 +9138,10 @@
         </is>
       </c>
       <c r="C121">
-        <v>56.0605</v>
+        <v>56.0729</v>
       </c>
       <c r="D121">
-        <v>12.3681</v>
+        <v>12.2988</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Esrum Å</t>
+          <t>Søborg Kanal</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. extremely soft sediment some places, but mostly filled with rocks.the soft sediment had a worm like structure in the top layer. temp = 0,9. speed = 27 sec.</t>
+          <t>10 m, 5 m in between samples. filled with elodea canadensis, making most of the sediment extremely soft, otherwise sand. temp = 1,2. speed = 49 sec.</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9202,7 +9202,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MFD09509</t>
+          <t>MFD09536</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9211,10 +9211,10 @@
         </is>
       </c>
       <c r="C122">
-        <v>56.0729</v>
+        <v>55.7702</v>
       </c>
       <c r="D122">
-        <v>12.2988</v>
+        <v>12.2111</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9228,17 +9228,17 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Søborg Kanal</t>
+          <t>Værebro Å</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. filled with elodea canadensis, making most of the sediment extremely soft, otherwise sand. temp = 1,2. speed = 49 sec.</t>
+          <t>20 m, 10 m in between samples. very shallow water. bottom almost entirely filled with rocks. temp = 1,6. wasn’t able to detect speed because of shallow water.</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -9275,7 +9275,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MFD09536</t>
+          <t>MFD09557</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9284,10 +9284,10 @@
         </is>
       </c>
       <c r="C123">
-        <v>55.7702</v>
+        <v>55.7607</v>
       </c>
       <c r="D123">
-        <v>12.2111</v>
+        <v>12.3803</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. very shallow water. bottom almost entirely filled with rocks. temp = 1,6. wasn’t able to detect speed because of shallow water.</t>
+          <t>20 m, 10 m in between samples. very shallow water. bottom filled with rocks, not a lot of sediment on top. temp = 1,7. wasn’t able to detect speed because of shallow water.</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9348,7 +9348,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MFD09557</t>
+          <t>MFD09578</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9357,10 +9357,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>55.7607</v>
+        <v>55.0961</v>
       </c>
       <c r="D124">
-        <v>12.3803</v>
+        <v>10.4172</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9374,17 +9374,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Værebro Å</t>
+          <t>Hundstrup A</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. very shallow water. bottom filled with rocks, not a lot of sediment on top. temp = 1,7. wasn’t able to detect speed because of shallow water.</t>
+          <t>10 m, 5 m in between samples. temp = 0,5. speed = 19 sec.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -9421,7 +9421,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MFD09578</t>
+          <t>MFD09619</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9430,10 +9430,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>55.0961</v>
+        <v>55.7757</v>
       </c>
       <c r="D125">
-        <v>10.4172</v>
+        <v>9.025600000000001</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9447,17 +9447,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Hundstrup A</t>
+          <t>Hoven Å</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. temp = 0,5. speed = 19 sec.</t>
+          <t>10 m, 5 m in between samples. very soft top layer, some places rocky bottom, others soft bottom as well. temp = 0,7. speed = 25 sec.</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -9494,7 +9494,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>MFD09619</t>
+          <t>MFD09666</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9503,10 +9503,10 @@
         </is>
       </c>
       <c r="C126">
-        <v>55.7757</v>
+        <v>55.2303</v>
       </c>
       <c r="D126">
-        <v>9.025600000000001</v>
+        <v>10.739</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -9520,17 +9520,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Hoven Å</t>
+          <t>Kongshøj Å</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. very soft top layer, some places rocky bottom, others soft bottom as well. temp = 0,7. speed = 25 sec.</t>
+          <t>20 m, 10 m in between. very tough ground, lots of rooting, a lot of sand. temp = 0,7. speed = 1 min 1 sec. because of the tough, we didn’t get exactly 20 cm, but maybe around 15 cm. it was that or nothing :)</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -9567,7 +9567,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MFD09666</t>
+          <t>MFD09686</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9576,10 +9576,10 @@
         </is>
       </c>
       <c r="C127">
-        <v>55.2303</v>
+        <v>55.1601</v>
       </c>
       <c r="D127">
-        <v>10.739</v>
+        <v>10.14</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Kongshøj Å</t>
+          <t>Hattebækken</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between. very tough ground, lots of rooting, a lot of sand. temp = 0,7. speed = 1 min 1 sec. because of the tough, we didn’t get exactly 20 cm, but maybe around 15 cm. it was that or nothing :)</t>
+          <t>20 m, 10 m in between samples. rock ground, so we could only get around 15 cm of sediment before we hit rocks. temp = 0,9. speed = 28 sec.</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9640,7 +9640,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFD09686</t>
+          <t>MFD09704</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9649,10 +9649,10 @@
         </is>
       </c>
       <c r="C128">
-        <v>55.1601</v>
+        <v>55.1122</v>
       </c>
       <c r="D128">
-        <v>10.14</v>
+        <v>8.731199999999999</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -9666,17 +9666,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Hattebækken</t>
+          <t>Brede Å Vest</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. rock ground, so we could only get around 15 cm of sediment before we hit rocks. temp = 0,9. speed = 28 sec.</t>
+          <t>temp =0,4. speed = 1 min 15 sek. wide stream, clay grounds, soft toplayer, hard underlayer</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -9713,7 +9713,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MFD09704</t>
+          <t>MFD09743</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9722,10 +9722,10 @@
         </is>
       </c>
       <c r="C129">
-        <v>55.1122</v>
+        <v>56.0396</v>
       </c>
       <c r="D129">
-        <v>8.731199999999999</v>
+        <v>12.4507</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -9739,17 +9739,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Brede Å Vest</t>
+          <t>Esrum Å</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>temp =0,4. speed = 1 min 15 sek. wide stream, clay grounds, soft toplayer, hard underlayer</t>
+          <t>20 m, 10 m in between samples. a layer of soft sediment on top of a rock bottom. temp = 1,2. speed = 1 min 21 sec.</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -9786,7 +9786,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MFD09743</t>
+          <t>MFD09745</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9795,10 +9795,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>56.0396</v>
+        <v>55.6005</v>
       </c>
       <c r="D130">
-        <v>12.4507</v>
+        <v>8.7631</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -9812,17 +9812,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Esrum Å</t>
+          <t>Sneum Å</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. a layer of soft sediment on top of a rock bottom. temp = 1,2. speed = 1 min 21 sec.</t>
+          <t>20 m, 10 m in between. temp = 0,6. speed = 1 min 32 sek. clear water, a lot of sand and vegetation.</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -9859,7 +9859,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MFD09745</t>
+          <t>MFD09773</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9868,10 +9868,10 @@
         </is>
       </c>
       <c r="C131">
-        <v>55.6005</v>
+        <v>55.5688</v>
       </c>
       <c r="D131">
-        <v>8.7631</v>
+        <v>8.4871</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Sneum Å</t>
+          <t>Grindsted-Varde Å</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9895,7 +9895,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between. temp = 0,6. speed = 1 min 32 sek. clear water, a lot of sand and vegetation.</t>
+          <t>only 10 m wide, 5 m in between samples. temp = 0,6. speed = 35 sek. very soft toplayer and underlayer.</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9932,7 +9932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MFD09773</t>
+          <t>MFD09778</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9941,10 +9941,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>55.5688</v>
+        <v>55.6602</v>
       </c>
       <c r="D132">
-        <v>8.4871</v>
+        <v>12.4778</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -9958,17 +9958,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Grindsted-Varde Å</t>
+          <t>Harrestrup Å</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>only 10 m wide, 5 m in between samples. temp = 0,6. speed = 35 sek. very soft toplayer and underlayer.</t>
+          <t>20 m, 10 m in between samples. not a lot of sediment, we hit rock bottom. temp = 1,4. speed = 56 sec.</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -10005,7 +10005,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MFD09778</t>
+          <t>MFD09812</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -10014,10 +10014,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>55.6602</v>
+        <v>57.0067</v>
       </c>
       <c r="D133">
-        <v>12.4778</v>
+        <v>9.9831</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10031,17 +10031,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Harrestrup Å</t>
+          <t>Sønder Tranders</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. not a lot of sediment, we hit rock bottom. temp = 1,4. speed = 56 sec.</t>
+          <t>appelsin= 1min 29 sek. temp =est 4</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -10078,7 +10078,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MFD09812</t>
+          <t>MFD09830</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="C134">
-        <v>57.0067</v>
+        <v>55.7015</v>
       </c>
       <c r="D134">
-        <v>9.9831</v>
+        <v>8.6349</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10104,17 +10104,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Sønder Tranders</t>
+          <t>Grindsted-Varde Å</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>appelsin= 1min 29 sek. temp =est 4</t>
+          <t>20 m, 10 m in between. temp = 0,46. speed = 46 sek.</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -10151,7 +10151,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MFD09830</t>
+          <t>MFD09831</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10160,10 +10160,10 @@
         </is>
       </c>
       <c r="C135">
-        <v>55.7015</v>
+        <v>55.8501</v>
       </c>
       <c r="D135">
-        <v>8.6349</v>
+        <v>12.5382</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10177,17 +10177,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Grindsted-Varde Å</t>
+          <t>Kighanerenden</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between. temp = 0,46. speed = 46 sek.</t>
+          <t>10 m, 5 m in between samples. very rock filled bottom, not a lot of sediment. temp = 1,2. speed = 1 min 48 sec. orange got stuck shortly</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -10224,7 +10224,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MFD09831</t>
+          <t>MFD09833</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10233,10 +10233,10 @@
         </is>
       </c>
       <c r="C136">
-        <v>55.8501</v>
+        <v>55.9637</v>
       </c>
       <c r="D136">
-        <v>12.5382</v>
+        <v>12.3498</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10250,17 +10250,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Kighanerenden</t>
+          <t>Esrum Å</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. very rock filled bottom, not a lot of sediment. temp = 1,2. speed = 1 min 48 sec. orange got stuck shortly</t>
+          <t>10 m, 5 m in between samples. some places filled with gravel, some places the sediment was so soft it appeared bottomless. shallow water. temp = 1,0. speed = 1 min 46 sec.</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -10297,7 +10297,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MFD09833</t>
+          <t>MFD09869</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10306,10 +10306,10 @@
         </is>
       </c>
       <c r="C137">
-        <v>55.9637</v>
+        <v>56.0034</v>
       </c>
       <c r="D137">
-        <v>12.3498</v>
+        <v>12.5722</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10323,17 +10323,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Esrum Å</t>
+          <t>Lokkerens Bæk</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. some places filled with gravel, some places the sediment was so soft it appeared bottomless. shallow water. temp = 1,0. speed = 1 min 46 sec.</t>
+          <t>10 m, 5 m in between samples. very shallow water, and small stream. temp = 0,8. wasn’t able to detect speed.</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -10370,7 +10370,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MFD09869</t>
+          <t>MFD09877</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10379,10 +10379,10 @@
         </is>
       </c>
       <c r="C138">
-        <v>56.0034</v>
+        <v>55.9917</v>
       </c>
       <c r="D138">
-        <v>12.5722</v>
+        <v>12.224</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -10396,17 +10396,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Lokkerens Bæk</t>
+          <t>Pole Å</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>10 m, 5 m in between samples. very shallow water, and small stream. temp = 0,8. wasn’t able to detect speed.</t>
+          <t>20 m, 10 m in between samples. very dirty water. clay sediment. temp = 1,3. speed = 1 min 26 sec.</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10426,7 +10426,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -10443,7 +10443,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>MFD09877</t>
+          <t>MFD09953</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10452,10 +10452,10 @@
         </is>
       </c>
       <c r="C139">
-        <v>55.9917</v>
+        <v>55.8788</v>
       </c>
       <c r="D139">
-        <v>12.224</v>
+        <v>12.322</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Pole Å</t>
+          <t>Havelse Å</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>20 m, 10 m in between samples. very dirty water. clay sediment. temp = 1,3. speed = 1 min 26 sec.</t>
+          <t>10 m, 5 m in between samples. rock bottom, infested with elodea canadensis. temp = 1,5. speed = 23 sec.</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10508,79 +10508,6 @@
         </is>
       </c>
       <c r="O139" t="inlineStr">
-        <is>
-          <t>Running freshwater</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>MFD09953</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>sediment</t>
-        </is>
-      </c>
-      <c r="C140">
-        <v>55.8788</v>
-      </c>
-      <c r="D140">
-        <v>12.322</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>streams</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>3200</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Havelse Å</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>10 m, 5 m in between samples. rock bottom, infested with elodea canadensis. temp = 1,5. speed = 23 sec.</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>P10_2</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Sediment</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>2022-04-30</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>Freshwater</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
         <is>
           <t>Running freshwater</t>
         </is>
